--- a/biology/Médecine/Bernard-Claude_Savy/Bernard-Claude_Savy.xlsx
+++ b/biology/Médecine/Bernard-Claude_Savy/Bernard-Claude_Savy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Bernard-Claude Savy (1er septembre 1922 à Neuilly-sur-Seine - 28 mai 1997 à Courbevoie) était un médecin, un administrateur de la Sécurité sociale et un homme politique français, député de la Nièvre de 1986 à 1988. 
@@ -512,9 +524,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Docteur en médecine générale (diplômé en 1948) et administrateur de la Sécurité sociale en 1962, Bernard-Claude Savy présidait depuis 1960 l'Union nationale pour l'avenir de la médecine (UNAM) [1]. Opposé à l'interruption volontaire de grossesse, il entre en conflit avec Louis René puis Bernard Glorion, présidents successifs du Conseil national de l'Ordre des médecins, dont le Dr Savy était membre. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Docteur en médecine générale (diplômé en 1948) et administrateur de la Sécurité sociale en 1962, Bernard-Claude Savy présidait depuis 1960 l'Union nationale pour l'avenir de la médecine (UNAM) . Opposé à l'interruption volontaire de grossesse, il entre en conflit avec Louis René puis Bernard Glorion, présidents successifs du Conseil national de l'Ordre des médecins, dont le Dr Savy était membre. 
 En 1972, Savy crée les clubs Avenir et libertés, d'abord autonomes, puis liés statutairement au Rassemblement pour la République après l'élection de François Mitterrand à la présidence de la République. 
 Résolument hostiles à la gauche, les clubs, et leur dirigeant-fondateur, entendent « organiser la résistance contre la collectivisation de notre société ». 
 À partir de 1982, Bernard-Claude Savy mène à travers son journal "Profils médico-sociaux" une campagne contre Jacques ATTALI et à travers lui le gouvernement de Gauche. À partir d'un extrait d'un des livres du conseil spécial de François Mitterrand, il accuse celui-ci de vouloir "tuer les vieux" (titre du tract diffusé à des millions d'exemplaires "Faut-il tuer les vieux ?"). De nombreux médecins se positionneront contre l'euthanasie à droite à l'occasion de cette campagne qui marqua une libération de la parole de la droite conservatrice.
